--- a/projects/office_model0_Sys3.xlsx
+++ b/projects/office_model0_Sys3.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="16440" tabRatio="562" activeTab="2"/>
   </bookViews>
@@ -31,7 +31,7 @@
     <definedName name="TrueFalse">Lookups!$C$12:$C$13</definedName>
     <definedName name="Workflow">Lookups!$E$12:$E$13</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2402" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2406" uniqueCount="828">
   <si>
     <t>type</t>
   </si>
@@ -2182,78 +2182,12 @@
     <t>kWh</t>
   </si>
   <si>
-    <t>Total Electricity Peak Modeled</t>
-  </si>
-  <si>
-    <t>kW</t>
-  </si>
-  <si>
-    <t>Electricity Consumption Period 1 Modeled</t>
-  </si>
-  <si>
-    <t>Electricity Consumption Period 2 Modeled</t>
-  </si>
-  <si>
-    <t>Electricity Consumption Period 3 Modeled</t>
-  </si>
-  <si>
-    <t>Electricity Consumption Period 4 Modeled</t>
-  </si>
-  <si>
-    <t>Electricity Consumption Period 5 Modeled</t>
-  </si>
-  <si>
-    <t>Electricity Consumption Period 6 Modeled</t>
-  </si>
-  <si>
-    <t>Electricity Consumption Period 7 Modeled</t>
-  </si>
-  <si>
-    <t>Electricity Consumption Period 8 Modeled</t>
-  </si>
-  <si>
-    <t>Electricity Consumption Period 9 Modeled</t>
-  </si>
-  <si>
-    <t>Electricity Consumption Period 10 Modeled</t>
-  </si>
-  <si>
-    <t>Electricity Consumption Period 11 Modeled</t>
-  </si>
-  <si>
-    <t>Gas Consumption Period 1 Modeled</t>
-  </si>
-  <si>
     <t>Total Gas Consumption Modeled</t>
   </si>
   <si>
     <t>therms</t>
   </si>
   <si>
-    <t>Gas Consumption Period 2 Modeled</t>
-  </si>
-  <si>
-    <t>Gas Consumption Period 3 Modeled</t>
-  </si>
-  <si>
-    <t>Gas Consumption Period 4 Modeled</t>
-  </si>
-  <si>
-    <t>Gas Consumption Period 5 Modeled</t>
-  </si>
-  <si>
-    <t>Gas Consumption Period 6 Modeled</t>
-  </si>
-  <si>
-    <t>Gas Consumption Period 7 Modeled</t>
-  </si>
-  <si>
-    <t>Gas Consumption Period 8 Modeled</t>
-  </si>
-  <si>
-    <t>Gas Consumption Period 9 Modeled</t>
-  </si>
-  <si>
     <t>Set Building Location And Design Days</t>
   </si>
   <si>
@@ -2398,75 +2332,6 @@
     <t>../analysis</t>
   </si>
   <si>
-    <t>calibration_reports.electric_bill_1_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_1_peak_demand_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_1_period_1_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_1_period_2_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_1_period_3_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_1_period_4_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_1_period_5_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_1_period_6_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_1_period_7_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_1_period_8_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_1_period_9_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_1_period_10_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_1_period_11_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_2_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_2_period_1_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_2_period_2_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_2_period_3_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_2_period_4_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_2_period_5_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_2_period_6_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_2_period_7_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_2_period_8_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_2_period_9_consumption_modeled</t>
-  </si>
-  <si>
     <t>../lib/calibration_data</t>
   </si>
   <si>
@@ -2513,6 +2378,153 @@
   </si>
   <si>
     <t>gal</t>
+  </si>
+  <si>
+    <t>Natural Gas Heating Intensity</t>
+  </si>
+  <si>
+    <t>standard_report_legacy.heating_natural_gas</t>
+  </si>
+  <si>
+    <t>Cooling Electricity Intensity</t>
+  </si>
+  <si>
+    <t>standard_report_legacy.cooling_electricity</t>
+  </si>
+  <si>
+    <t>Interior Lighting Electricity Intensity</t>
+  </si>
+  <si>
+    <t>standard_report_legacy.interior_lighting_electricity</t>
+  </si>
+  <si>
+    <t>Exterior Lighting Electricity Intensity</t>
+  </si>
+  <si>
+    <t>standard_report_legacy.exterior_lighting_electricity</t>
+  </si>
+  <si>
+    <t>Equipment Electricity Intensity</t>
+  </si>
+  <si>
+    <t>standard_report_legacy.interior_equipment_electricity</t>
+  </si>
+  <si>
+    <t>Equipment Natural Gas Intensity</t>
+  </si>
+  <si>
+    <t>standard_report_legacy.interior_equipment_natural_gas</t>
+  </si>
+  <si>
+    <t>Experior Equipment Electricity Intensity</t>
+  </si>
+  <si>
+    <t>standard_report_legacy.exterior_equipment_electricity</t>
+  </si>
+  <si>
+    <t>Fans Electricity Intensity</t>
+  </si>
+  <si>
+    <t>standard_report_legacy.fans_electricity</t>
+  </si>
+  <si>
+    <t>Pumps Electricity Intensity</t>
+  </si>
+  <si>
+    <t>standard_report_legacy.pumps_electricity</t>
+  </si>
+  <si>
+    <t>Heat Rejection Electricity Intensity</t>
+  </si>
+  <si>
+    <t>standard_report_legacy.heat_rejection_electricity</t>
+  </si>
+  <si>
+    <t>Humidification Electricity Intensity</t>
+  </si>
+  <si>
+    <t>standard_report_legacy.humidification_electricity</t>
+  </si>
+  <si>
+    <t>Water Systems Electricity Intensity</t>
+  </si>
+  <si>
+    <t>standard_report_legacy.water_systems_electricity</t>
+  </si>
+  <si>
+    <t>Water Systems Natural Gas Intensity</t>
+  </si>
+  <si>
+    <t>standard_report_legacy.water_systems_natural_gas</t>
+  </si>
+  <si>
+    <t>Refrigeration Electricity Intensity</t>
+  </si>
+  <si>
+    <t>standard_report_legacy.refrigeration_electricity</t>
+  </si>
+  <si>
+    <t>Unmet Cooling Hours</t>
+  </si>
+  <si>
+    <t>standard_report.time_setpoint_not_met_during_occupied_cooling</t>
+  </si>
+  <si>
+    <t>hrs</t>
+  </si>
+  <si>
+    <t>Unmet Heating Hours</t>
+  </si>
+  <si>
+    <t>standard_report.time_setpoint_not_met_during_occupied_heating</t>
+  </si>
+  <si>
+    <t>Total Unmet Hours</t>
+  </si>
+  <si>
+    <t>standard_report.time_setpoint_not_met_during_occupied_hours</t>
+  </si>
+  <si>
+    <t>Building Area</t>
+  </si>
+  <si>
+    <t>standard_report.total_building_area</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_consumption_modeled</t>
+  </si>
+  <si>
+    <t>Electric CVRMSE</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Electric NMBE</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>Gas CVRMSE</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>Gas NMBE</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_consumption_nmbe</t>
   </si>
 </sst>
 </file>
@@ -2522,7 +2534,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2585,6 +2597,13 @@
       <sz val="14"/>
       <color rgb="FF333333"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -4452,7 +4471,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4540,6 +4559,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1749" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6641,17 +6661,17 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="81.85546875" customWidth="1"/>
+    <col min="1" max="1" width="81.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="45">
+    <row r="1" spans="1:1" ht="28">
       <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="30">
+    <row r="2" spans="1:1" ht="28">
       <c r="A2" s="36" t="s">
         <v>41</v>
       </c>
@@ -6675,14 +6695,14 @@
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.7109375" style="1"/>
+    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6714,7 +6734,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30">
+    <row r="4" spans="1:5" ht="28">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
@@ -6725,7 +6745,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="75">
+    <row r="5" spans="1:5" ht="42">
       <c r="A5" s="1" t="s">
         <v>469</v>
       </c>
@@ -6736,7 +6756,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45.95" customHeight="1">
+    <row r="6" spans="1:5" ht="46" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>470</v>
       </c>
@@ -6747,7 +6767,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6766,7 +6786,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30">
+    <row r="8" spans="1:5" ht="28">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -6812,7 +6832,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>782</v>
+        <v>760</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>471</v>
@@ -6823,10 +6843,10 @@
         <v>25</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>783</v>
+        <v>761</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>773</v>
+        <v>751</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6834,10 +6854,10 @@
         <v>26</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>784</v>
+        <v>762</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>773</v>
+        <v>751</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6851,7 +6871,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
@@ -6884,7 +6904,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="60">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
@@ -6909,7 +6929,7 @@
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="60">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A23" s="11" t="s">
         <v>450</v>
       </c>
@@ -6986,12 +7006,12 @@
       <c r="C35" s="26"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="45">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>772</v>
+        <v>750</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>31</v>
@@ -7007,7 +7027,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="30">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -7018,7 +7038,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>772</v>
+        <v>750</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>449</v>
@@ -7038,7 +7058,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="60">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="56">
       <c r="A42" s="11" t="s">
         <v>35</v>
       </c>
@@ -7046,7 +7066,7 @@
         <v>34</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>777</v>
+        <v>755</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="13" t="s">
@@ -7061,7 +7081,7 @@
         <v>704</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>808</v>
+        <v>763</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="31" customFormat="1">
@@ -7095,36 +7115,36 @@
   <dimension ref="A1:Y223"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="31" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="31" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="31" customWidth="1"/>
-    <col min="13" max="14" width="7.85546875" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" style="31"/>
-    <col min="16" max="16" width="11.42578125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" style="31" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
+    <col min="13" max="14" width="7.83203125" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.5" style="31"/>
+    <col min="16" max="16" width="11.5" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
-    <col min="18" max="18" width="27.7109375" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.140625" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.42578125" style="31"/>
-    <col min="23" max="23" width="13.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.42578125" style="31"/>
+    <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
+    <col min="19" max="19" width="46.1640625" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.5" style="31"/>
+    <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.5" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18.75">
+    <row r="1" spans="1:25" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7150,16 +7170,16 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
-      <c r="T1" s="45" t="s">
+      <c r="T1" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-    </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.75">
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+    </row>
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7175,7 +7195,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="63">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="45">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7254,13 +7274,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>737</v>
+        <v>715</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>738</v>
+        <v>716</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>738</v>
+        <v>716</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>68</v>
@@ -7273,16 +7293,16 @@
         <v>21</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>774</v>
+        <v>752</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>775</v>
+        <v>753</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>776</v>
+        <v>754</v>
       </c>
     </row>
     <row r="6" spans="1:25" s="30" customFormat="1">
@@ -7290,16 +7310,16 @@
         <v>21</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>740</v>
+        <v>718</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>739</v>
+        <v>717</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>815</v>
+        <v>770</v>
       </c>
     </row>
     <row r="7" spans="1:25" s="38" customFormat="1">
@@ -7335,7 +7355,7 @@
         <v>619</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>741</v>
+        <v>719</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -7360,7 +7380,7 @@
         <v>619</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>814</v>
+        <v>769</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -7428,13 +7448,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>743</v>
+        <v>721</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>742</v>
+        <v>720</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>742</v>
+        <v>720</v>
       </c>
       <c r="E13" s="38" t="s">
         <v>68</v>
@@ -7442,7 +7462,7 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:25" s="30" customFormat="1" ht="18">
+    <row r="14" spans="1:25" s="30" customFormat="1" ht="17">
       <c r="B14" s="30" t="s">
         <v>21</v>
       </c>
@@ -7456,7 +7476,7 @@
         <v>64</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>770</v>
+        <v>748</v>
       </c>
       <c r="H14" s="43">
         <v>104666</v>
@@ -7515,7 +7535,7 @@
         <v>64</v>
       </c>
       <c r="G17" s="44" t="s">
-        <v>771</v>
+        <v>749</v>
       </c>
       <c r="H17" s="44">
         <v>12</v>
@@ -7526,10 +7546,10 @@
         <v>21</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>744</v>
+        <v>722</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>745</v>
+        <v>723</v>
       </c>
       <c r="F18" s="30" t="s">
         <v>64</v>
@@ -7543,10 +7563,10 @@
         <v>21</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>746</v>
+        <v>724</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>747</v>
+        <v>725</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>64</v>
@@ -7560,10 +7580,10 @@
         <v>21</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>748</v>
+        <v>726</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>749</v>
+        <v>727</v>
       </c>
       <c r="F20" s="30" t="s">
         <v>64</v>
@@ -7577,10 +7597,10 @@
         <v>21</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>750</v>
+        <v>728</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>751</v>
+        <v>729</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>64</v>
@@ -7594,10 +7614,10 @@
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>752</v>
+        <v>730</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>753</v>
+        <v>731</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>64</v>
@@ -7611,10 +7631,10 @@
         <v>21</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>754</v>
+        <v>732</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>755</v>
+        <v>733</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>64</v>
@@ -7628,10 +7648,10 @@
         <v>21</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>756</v>
+        <v>734</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>757</v>
+        <v>735</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>64</v>
@@ -7645,10 +7665,10 @@
         <v>21</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>758</v>
+        <v>736</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>64</v>
@@ -7662,10 +7682,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>760</v>
+        <v>738</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="F26" s="30" t="s">
         <v>64</v>
@@ -7679,10 +7699,10 @@
         <v>21</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
       <c r="F27" s="30" t="s">
         <v>64</v>
@@ -7696,10 +7716,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>764</v>
+        <v>742</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>765</v>
+        <v>743</v>
       </c>
       <c r="F28" s="30" t="s">
         <v>64</v>
@@ -7713,10 +7733,10 @@
         <v>21</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>766</v>
+        <v>744</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>767</v>
+        <v>745</v>
       </c>
       <c r="F29" s="30" t="s">
         <v>64</v>
@@ -7730,10 +7750,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>768</v>
+        <v>746</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>769</v>
+        <v>747</v>
       </c>
       <c r="F30" s="30" t="s">
         <v>64</v>
@@ -7782,13 +7802,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>809</v>
+        <v>764</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>810</v>
+        <v>765</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>810</v>
+        <v>765</v>
       </c>
       <c r="E33" s="38" t="s">
         <v>68</v>
@@ -7799,10 +7819,10 @@
         <v>21</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>778</v>
+        <v>756</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>779</v>
+        <v>757</v>
       </c>
       <c r="F34" s="30" t="s">
         <v>64</v>
@@ -7816,10 +7836,10 @@
         <v>21</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>780</v>
+        <v>758</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>781</v>
+        <v>759</v>
       </c>
       <c r="F35" s="30" t="s">
         <v>64</v>
@@ -7833,7 +7853,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>811</v>
+        <v>766</v>
       </c>
       <c r="C36" s="38" t="s">
         <v>74</v>
@@ -7852,7 +7872,7 @@
         <v>21</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>812</v>
+        <v>767</v>
       </c>
       <c r="E37" s="31" t="s">
         <v>75</v>
@@ -7861,7 +7881,7 @@
         <v>620</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>813</v>
+        <v>768</v>
       </c>
       <c r="H37" s="31">
         <v>10</v>
@@ -8356,13 +8376,13 @@
         <v>1</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>817</v>
+        <v>772</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>816</v>
+        <v>771</v>
       </c>
       <c r="D59" s="38" t="s">
-        <v>816</v>
+        <v>771</v>
       </c>
       <c r="E59" s="38" t="s">
         <v>68</v>
@@ -8375,16 +8395,16 @@
         <v>21</v>
       </c>
       <c r="D60" s="31" t="s">
-        <v>821</v>
+        <v>776</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>818</v>
+        <v>773</v>
       </c>
       <c r="F60" s="31" t="s">
         <v>619</v>
       </c>
       <c r="H60" s="31" t="s">
-        <v>820</v>
+        <v>775</v>
       </c>
       <c r="I60" s="31"/>
     </row>
@@ -8393,16 +8413,16 @@
         <v>21</v>
       </c>
       <c r="D61" s="31" t="s">
-        <v>822</v>
+        <v>777</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>819</v>
+        <v>774</v>
       </c>
       <c r="F61" s="31" t="s">
         <v>620</v>
       </c>
       <c r="G61" s="31" t="s">
-        <v>823</v>
+        <v>778</v>
       </c>
       <c r="H61" s="31">
         <v>1</v>
@@ -9093,23 +9113,23 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A4:XFD30"/>
+      <selection pane="bottomLeft" sqref="A1:L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="29.42578125" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.5" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="31" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.42578125" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="31" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="31" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="31"/>
+    <col min="4" max="4" width="10.5" style="31" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.5" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="31" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="11.5" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
+    <row r="1" spans="1:12" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -9124,7 +9144,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.75">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>459</v>
       </c>
@@ -9159,7 +9179,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="47.25">
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="30">
       <c r="A3" s="14" t="s">
         <v>630</v>
       </c>
@@ -9314,26 +9334,26 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="30" t="s">
-        <v>711</v>
+        <v>779</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>712</v>
+        <v>468</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>64</v>
       </c>
       <c r="F8" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="30" t="b">
         <v>1</v>
       </c>
       <c r="H8" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="30"/>
       <c r="J8" s="30"/>
@@ -9342,26 +9362,26 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="30" t="s">
-        <v>713</v>
+        <v>781</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>714</v>
+        <v>468</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>64</v>
       </c>
       <c r="F9" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="30" t="b">
         <v>1</v>
       </c>
       <c r="H9" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
@@ -9370,138 +9390,134 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="30" t="s">
-        <v>715</v>
+        <v>783</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>712</v>
+        <v>468</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>64</v>
       </c>
       <c r="F10" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="30" t="b">
         <v>1</v>
       </c>
       <c r="H10" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" s="30"/>
+        <v>0</v>
+      </c>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="30" t="s">
-        <v>716</v>
+        <v>785</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>712</v>
+        <v>468</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>64</v>
       </c>
       <c r="F11" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="30" t="b">
         <v>1</v>
       </c>
       <c r="H11" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" s="30"/>
+        <v>0</v>
+      </c>
       <c r="J11" s="30"/>
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="30" t="s">
-        <v>717</v>
+        <v>787</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>712</v>
+        <v>468</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>64</v>
       </c>
       <c r="F12" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="30" t="b">
         <v>1</v>
       </c>
       <c r="H12" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" s="30"/>
+        <v>0</v>
+      </c>
       <c r="J12" s="30"/>
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="30" t="s">
-        <v>718</v>
+        <v>789</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30" t="s">
         <v>790</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>712</v>
+        <v>468</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>64</v>
       </c>
       <c r="F13" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="30" t="b">
         <v>1</v>
       </c>
       <c r="H13" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" s="30"/>
+        <v>0</v>
+      </c>
       <c r="J13" s="30"/>
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="30" t="s">
-        <v>719</v>
+        <v>791</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>712</v>
+        <v>468</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>64</v>
       </c>
       <c r="F14" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="30" t="b">
         <v>1</v>
       </c>
       <c r="H14" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="30"/>
       <c r="J14" s="30"/>
@@ -9510,26 +9526,26 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="30" t="s">
-        <v>720</v>
+        <v>793</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>712</v>
+        <v>468</v>
       </c>
       <c r="E15" s="30" t="s">
         <v>64</v>
       </c>
       <c r="F15" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="30" t="b">
         <v>1</v>
       </c>
       <c r="H15" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="30"/>
       <c r="J15" s="30"/>
@@ -9538,26 +9554,26 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="30" t="s">
-        <v>721</v>
+        <v>795</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>712</v>
+        <v>468</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>64</v>
       </c>
       <c r="F16" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="30" t="b">
         <v>1</v>
       </c>
       <c r="H16" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
@@ -9566,26 +9582,26 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="30" t="s">
-        <v>722</v>
+        <v>797</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>712</v>
+        <v>468</v>
       </c>
       <c r="E17" s="30" t="s">
         <v>64</v>
       </c>
       <c r="F17" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="30" t="b">
         <v>1</v>
       </c>
       <c r="H17" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
@@ -9594,26 +9610,26 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="30" t="s">
-        <v>723</v>
+        <v>799</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>712</v>
+        <v>468</v>
       </c>
       <c r="E18" s="30" t="s">
         <v>64</v>
       </c>
       <c r="F18" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="30" t="b">
         <v>1</v>
       </c>
       <c r="H18" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="30"/>
       <c r="J18" s="30"/>
@@ -9622,26 +9638,26 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="30" t="s">
-        <v>724</v>
+        <v>801</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>712</v>
+        <v>468</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>64</v>
       </c>
       <c r="F19" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="30" t="b">
         <v>1</v>
       </c>
       <c r="H19" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="30"/>
       <c r="J19" s="30"/>
@@ -9650,26 +9666,26 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="30" t="s">
-        <v>725</v>
+        <v>803</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>712</v>
+        <v>468</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>64</v>
       </c>
       <c r="F20" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="30" t="b">
         <v>1</v>
       </c>
       <c r="H20" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="30"/>
       <c r="J20" s="30"/>
@@ -9678,26 +9694,26 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="30" t="s">
-        <v>727</v>
+        <v>805</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30" t="s">
-        <v>798</v>
+        <v>806</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>728</v>
+        <v>468</v>
       </c>
       <c r="E21" s="30" t="s">
         <v>64</v>
       </c>
       <c r="F21" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="30" t="b">
         <v>1</v>
       </c>
       <c r="H21" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="30"/>
       <c r="J21" s="30"/>
@@ -9706,26 +9722,26 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="30" t="s">
-        <v>726</v>
+        <v>807</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30" t="s">
-        <v>799</v>
+        <v>808</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>728</v>
+        <v>809</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="30" t="b">
-        <v>1</v>
+      <c r="F22" s="45" t="b">
+        <v>0</v>
       </c>
       <c r="G22" s="30" t="b">
         <v>1</v>
       </c>
       <c r="H22" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="30"/>
       <c r="J22" s="30"/>
@@ -9734,26 +9750,26 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="30" t="s">
-        <v>729</v>
+        <v>810</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30" t="s">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>728</v>
+        <v>809</v>
       </c>
       <c r="E23" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="30" t="b">
-        <v>1</v>
+      <c r="F23" s="45" t="b">
+        <v>0</v>
       </c>
       <c r="G23" s="30" t="b">
         <v>1</v>
       </c>
       <c r="H23" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="30"/>
@@ -9762,26 +9778,26 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="30" t="s">
-        <v>730</v>
+        <v>812</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30" t="s">
-        <v>801</v>
+        <v>813</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>728</v>
+        <v>809</v>
       </c>
       <c r="E24" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="30" t="b">
-        <v>1</v>
+      <c r="F24" s="45" t="b">
+        <v>0</v>
       </c>
       <c r="G24" s="30" t="b">
         <v>1</v>
       </c>
       <c r="H24" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="30"/>
       <c r="J24" s="30"/>
@@ -9790,14 +9806,14 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="30" t="s">
-        <v>731</v>
+        <v>814</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30" t="s">
-        <v>802</v>
+        <v>815</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>728</v>
+        <v>816</v>
       </c>
       <c r="E25" s="30" t="s">
         <v>64</v>
@@ -9809,7 +9825,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="30"/>
       <c r="J25" s="30"/>
@@ -9818,14 +9834,14 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="30" t="s">
-        <v>732</v>
+        <v>711</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30" t="s">
-        <v>803</v>
+        <v>817</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="E26" s="30" t="s">
         <v>64</v>
@@ -9837,7 +9853,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="30"/>
       <c r="J26" s="30"/>
@@ -9846,14 +9862,14 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="30" t="s">
-        <v>733</v>
+        <v>713</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="30" t="s">
-        <v>804</v>
+        <v>818</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>728</v>
+        <v>714</v>
       </c>
       <c r="E27" s="30" t="s">
         <v>64</v>
@@ -9865,7 +9881,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="30"/>
       <c r="J27" s="30"/>
@@ -9874,16 +9890,16 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="30" t="s">
-        <v>734</v>
+        <v>819</v>
       </c>
       <c r="B28" s="30"/>
       <c r="C28" s="30" t="s">
-        <v>805</v>
+        <v>820</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>728</v>
-      </c>
-      <c r="E28" s="30" t="s">
+        <v>821</v>
+      </c>
+      <c r="E28" s="31" t="s">
         <v>64</v>
       </c>
       <c r="F28" s="30" t="b">
@@ -9895,23 +9911,25 @@
       <c r="H28" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="I28" s="30"/>
+      <c r="I28" s="31">
+        <v>0</v>
+      </c>
       <c r="J28" s="30"/>
       <c r="K28" s="30"/>
       <c r="L28" s="30"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="30" t="s">
-        <v>735</v>
+        <v>822</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30" t="s">
-        <v>806</v>
+        <v>823</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>728</v>
-      </c>
-      <c r="E29" s="30" t="s">
+        <v>821</v>
+      </c>
+      <c r="E29" s="31" t="s">
         <v>64</v>
       </c>
       <c r="F29" s="30" t="b">
@@ -9923,23 +9941,25 @@
       <c r="H29" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="I29" s="30"/>
+      <c r="I29" s="31">
+        <v>0</v>
+      </c>
       <c r="J29" s="30"/>
       <c r="K29" s="30"/>
       <c r="L29" s="30"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="30" t="s">
-        <v>736</v>
+        <v>824</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30" t="s">
-        <v>807</v>
+        <v>825</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>728</v>
-      </c>
-      <c r="E30" s="30" t="s">
+        <v>821</v>
+      </c>
+      <c r="E30" s="31" t="s">
         <v>64</v>
       </c>
       <c r="F30" s="30" t="b">
@@ -9951,16 +9971,42 @@
       <c r="H30" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="I30" s="30"/>
+      <c r="I30" s="31">
+        <v>0</v>
+      </c>
       <c r="J30" s="30"/>
       <c r="K30" s="30"/>
       <c r="L30" s="30"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="30"/>
+      <c r="A31" s="30" t="s">
+        <v>826</v>
+      </c>
       <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
+      <c r="C31" s="30" t="s">
+        <v>827</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>821</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" s="31">
+        <v>0</v>
+      </c>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="30"/>
@@ -10023,19 +10069,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -10054,7 +10100,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -10075,7 +10121,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -10098,7 +10144,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -10121,7 +10167,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -10144,7 +10190,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -10167,7 +10213,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -10190,7 +10236,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -10213,7 +10259,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -10236,7 +10282,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -10259,7 +10305,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -10278,7 +10324,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -10299,7 +10345,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -10322,7 +10368,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -10345,7 +10391,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -10368,7 +10414,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -10391,7 +10437,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -10414,7 +10460,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -10437,7 +10483,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -10460,7 +10506,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -10483,7 +10529,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -10502,7 +10548,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -10525,7 +10571,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -10548,7 +10594,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -10571,7 +10617,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -10594,7 +10640,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -10617,7 +10663,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15.75">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -10640,7 +10686,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.75">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -10663,7 +10709,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15.75">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -10686,7 +10732,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15.75">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -10709,7 +10755,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15.75">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -10728,7 +10774,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15.75">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -10749,7 +10795,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15.75">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -10772,7 +10818,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15.75">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -10795,7 +10841,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.75">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -10818,7 +10864,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.75">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -10841,7 +10887,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -10864,7 +10910,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.75">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -10887,7 +10933,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.75">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -10910,7 +10956,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.75">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -10933,7 +10979,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -10952,7 +10998,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.75">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -10973,7 +11019,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.75">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -10996,7 +11042,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.75">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -11019,7 +11065,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.75">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -11042,7 +11088,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.75">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -11065,7 +11111,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.75">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -11088,7 +11134,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.75">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -11111,7 +11157,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.75">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -11134,7 +11180,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -11157,7 +11203,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -11176,7 +11222,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.75">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -11197,7 +11243,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.75">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -11220,7 +11266,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.75">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -11243,7 +11289,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.75">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -11266,7 +11312,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.75">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -11289,7 +11335,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.75">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -11312,7 +11358,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.75">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -11335,7 +11381,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.75">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -11358,7 +11404,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.75">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -11381,7 +11427,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.75">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -11400,7 +11446,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.75">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -11421,7 +11467,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.75">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -11446,7 +11492,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.75">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -11469,7 +11515,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.75">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -11492,7 +11538,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.75">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -11515,7 +11561,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.75">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -11538,7 +11584,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.75">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -11561,7 +11607,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.75">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -11584,7 +11630,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.75">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -11607,7 +11653,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.75">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -11630,7 +11676,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.75">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -11649,7 +11695,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.75">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -11670,7 +11716,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.75">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -11693,7 +11739,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.75">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -11718,7 +11764,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.75">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -11741,7 +11787,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.75">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -11764,7 +11810,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.75">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -11787,7 +11833,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.75">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -11810,7 +11856,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.75">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -11833,7 +11879,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.75">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -11856,7 +11902,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.75">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -11879,7 +11925,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.75">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -11902,7 +11948,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.75">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -11925,7 +11971,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.75">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -11948,7 +11994,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.75">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -11967,7 +12013,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.75">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -11990,7 +12036,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.75">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -12013,7 +12059,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.75">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -12036,7 +12082,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.75">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -12059,7 +12105,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.75">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -12082,7 +12128,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.75">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -12105,7 +12151,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.75">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -12128,7 +12174,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.75">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -12151,7 +12197,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.75">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -12174,7 +12220,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.75">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -12197,7 +12243,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.75">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -12216,7 +12262,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.75">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -12241,7 +12287,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.75">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -12260,7 +12306,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.75">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -12281,7 +12327,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.75">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -12306,7 +12352,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.75">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -12325,7 +12371,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.75">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -12348,7 +12394,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.75">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -12373,7 +12419,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.75">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -12396,7 +12442,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.75">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -12417,7 +12463,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.75">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -12436,7 +12482,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.75">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -12461,7 +12507,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.75">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -12484,7 +12530,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.75">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -12507,7 +12553,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.75">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -12530,7 +12576,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.75">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -12553,7 +12599,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.75">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -12576,7 +12622,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.75">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -12599,7 +12645,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.75">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -12618,7 +12664,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.75">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -12641,7 +12687,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.75">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -12664,7 +12710,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.75">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -12687,7 +12733,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.75">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -12706,7 +12752,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.75">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -12729,7 +12775,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.75">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -12752,7 +12798,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.75">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -12775,7 +12821,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.75">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -12798,7 +12844,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.75">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -12821,7 +12867,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.75">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -12844,7 +12890,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.75">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -12863,7 +12909,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.75">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -12888,7 +12934,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.75">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -12911,7 +12957,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.75">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -12934,7 +12980,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.75">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -12957,7 +13003,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.75">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -12980,7 +13026,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.75">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -13003,7 +13049,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.75">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -13026,7 +13072,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.75">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -13049,7 +13095,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.75">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -13072,7 +13118,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.75">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -13091,7 +13137,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.75">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -13116,7 +13162,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.75">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -13137,7 +13183,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.75">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -13160,7 +13206,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.75">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -13183,7 +13229,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.75">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -13206,7 +13252,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.75">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -13229,7 +13275,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.75">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -13252,7 +13298,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.75">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -13275,7 +13321,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.75">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -13298,7 +13344,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.75">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -13321,7 +13367,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.75">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -13344,7 +13390,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.75">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -13367,7 +13413,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.75">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -13390,7 +13436,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.75">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -13413,7 +13459,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.75">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -13432,7 +13478,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.75">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -13455,7 +13501,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.75">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -13474,7 +13520,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.75">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -13497,7 +13543,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.75">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -13520,7 +13566,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.75">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -13539,7 +13585,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.75">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -13564,7 +13610,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.75">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -13587,7 +13633,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.75">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -13610,7 +13656,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.75">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -13633,7 +13679,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.75">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -13656,7 +13702,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.75">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -13679,7 +13725,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.75">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -13702,7 +13748,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.75">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -13725,7 +13771,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.75">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -13748,7 +13794,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.75">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -13771,7 +13817,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.75">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -13790,7 +13836,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.75">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -13815,7 +13861,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.75">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -13838,7 +13884,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.75">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -13861,7 +13907,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.75">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -13884,7 +13930,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.75">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -13907,7 +13953,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.75">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -13930,7 +13976,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.75">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -13953,7 +13999,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.75">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -13976,7 +14022,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.75">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -13999,7 +14045,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.75">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -14022,7 +14068,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.75">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -14041,7 +14087,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.75">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -14064,7 +14110,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.75">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -14087,7 +14133,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.75">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -14110,7 +14156,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.75">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -14133,7 +14179,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.75">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -14152,7 +14198,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.75">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -14175,7 +14221,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.75">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -14198,7 +14244,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.75">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -14221,7 +14267,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.75">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -14244,7 +14290,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.75">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -14263,7 +14309,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.75">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -14284,7 +14330,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.75">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -14307,7 +14353,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.75">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -14326,7 +14372,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.75">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -14349,7 +14395,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.75">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -14374,7 +14420,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.75">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -14395,7 +14441,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.75">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -14420,7 +14466,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.75">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -14445,7 +14491,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.75">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -14464,7 +14510,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.75">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -14489,7 +14535,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.75">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -14512,7 +14558,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.75">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -14535,7 +14581,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.75">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -14558,7 +14604,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.75">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -14581,7 +14627,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.75">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -14604,7 +14650,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.75">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -14627,7 +14673,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.75">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -14650,7 +14696,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.75">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -14673,7 +14719,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.75">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -14692,7 +14738,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.75">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -14717,7 +14763,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.75">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -14740,7 +14786,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.75">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -14763,7 +14809,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.75">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -14786,7 +14832,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.75">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -14809,7 +14855,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.75">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -14832,7 +14878,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.75">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -14855,7 +14901,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.75">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -14878,7 +14924,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.75">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -14901,7 +14947,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.75">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -14920,7 +14966,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.75">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -14941,7 +14987,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.75">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -14964,7 +15010,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.75">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -14987,7 +15033,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.75">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -15010,7 +15056,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.75">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -15033,7 +15079,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.75">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -15056,7 +15102,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.75">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -15079,7 +15125,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.75">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -15102,7 +15148,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.75">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -15125,7 +15171,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.75">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -15148,7 +15194,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.75">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -15171,7 +15217,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.75">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -15194,7 +15240,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.75">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -15217,7 +15263,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.75">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -15240,7 +15286,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.75">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -15263,7 +15309,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.75">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -15286,7 +15332,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.75">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -15305,7 +15351,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.75">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -15326,7 +15372,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.75">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -15349,7 +15395,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.75">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -15372,7 +15418,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.75">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -15395,7 +15441,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.75">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -15418,7 +15464,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.75">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -15441,7 +15487,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.75">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -15464,7 +15510,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.75">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -15487,7 +15533,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.75">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -15510,7 +15556,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.75">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -15533,7 +15579,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.75">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -15556,7 +15602,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.75">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -15579,7 +15625,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.75">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -15602,7 +15648,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.75">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -15625,7 +15671,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.75">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -15648,7 +15694,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.75">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -15671,7 +15717,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.75">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -15690,7 +15736,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.75">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -15715,7 +15761,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.75">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -15738,7 +15784,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.75">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -15761,7 +15807,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.75">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -15784,7 +15830,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.75">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -15807,7 +15853,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.75">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -15826,7 +15872,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.75">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -15851,7 +15897,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.75">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -15874,7 +15920,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.75">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -15893,7 +15939,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.75">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -15912,7 +15958,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.75">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -15931,7 +15977,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.75">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -15952,7 +15998,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.75">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -15975,7 +16021,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.75">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -15998,7 +16044,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.75">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -16021,7 +16067,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.75">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -16044,7 +16090,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.75">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -16067,7 +16113,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.75">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -16090,7 +16136,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.75">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -16113,7 +16159,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.75">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -16136,7 +16182,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.75">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -16159,7 +16205,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.75">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -16182,7 +16228,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.75">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -16201,7 +16247,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.75">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -16224,7 +16270,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.75">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -16243,7 +16289,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.75">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -16268,7 +16314,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.75">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -16291,7 +16337,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.75">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -16314,7 +16360,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.75">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -16337,7 +16383,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.75">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -16360,7 +16406,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.75">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -16383,7 +16429,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.75">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -16406,7 +16452,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.75">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -16429,7 +16475,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.75">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -16452,7 +16498,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.75">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -16475,7 +16521,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.75">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -16498,7 +16544,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.75">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -16517,7 +16563,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.75">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -16540,7 +16586,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.75">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -16559,7 +16605,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.75">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -16580,7 +16626,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.75">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -16599,7 +16645,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.75">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -16620,7 +16666,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.75">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -16639,7 +16685,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.75">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -16660,7 +16706,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.75">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -16679,7 +16725,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.75">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -16702,7 +16748,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.75">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -16721,7 +16767,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.75">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -16746,7 +16792,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.75">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -16769,7 +16815,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.75">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -16792,7 +16838,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.75">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -16815,7 +16861,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.75">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -16838,7 +16884,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.75">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -16861,7 +16907,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.75">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -16884,7 +16930,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.75">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -16907,7 +16953,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.75">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -16930,7 +16976,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.75">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -16949,7 +16995,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.75">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -16972,7 +17018,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.75">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -16995,7 +17041,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.75">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -17018,7 +17064,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.75">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -17041,7 +17087,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.75">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -17060,7 +17106,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.75">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -17083,7 +17129,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.75">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -17106,7 +17152,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.75">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -17131,7 +17177,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.75">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -17150,7 +17196,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.75">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -17175,7 +17221,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.75">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -17198,7 +17244,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.75">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -17217,7 +17263,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.75">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -17238,7 +17284,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.75">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -17259,7 +17305,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.75">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -17282,7 +17328,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.75">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -17301,7 +17347,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.75">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -17320,7 +17366,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.75">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -17345,7 +17391,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.75">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -17702,7 +17748,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.75">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18065,7 +18111,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.75">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -18193,14 +18239,14 @@
       <selection activeCell="A17" sqref="A17:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" customWidth="1"/>
-    <col min="17" max="17" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
+    <col min="17" max="17" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">

--- a/projects/office_model0_Sys3.xlsx
+++ b/projects/office_model0_Sys3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="16440" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="562" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -2467,30 +2467,18 @@
     <t>Unmet Cooling Hours</t>
   </si>
   <si>
-    <t>standard_report.time_setpoint_not_met_during_occupied_cooling</t>
-  </si>
-  <si>
     <t>hrs</t>
   </si>
   <si>
     <t>Unmet Heating Hours</t>
   </si>
   <si>
-    <t>standard_report.time_setpoint_not_met_during_occupied_heating</t>
-  </si>
-  <si>
     <t>Total Unmet Hours</t>
   </si>
   <si>
-    <t>standard_report.time_setpoint_not_met_during_occupied_hours</t>
-  </si>
-  <si>
     <t>Building Area</t>
   </si>
   <si>
-    <t>standard_report.total_building_area</t>
-  </si>
-  <si>
     <t>m2</t>
   </si>
   <si>
@@ -2525,6 +2513,18 @@
   </si>
   <si>
     <t>calibration_reports.gas_bill_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>standard_reports.time_setpoint_not_met_during_occupied_cooling</t>
+  </si>
+  <si>
+    <t>standard_reports.time_setpoint_not_met_during_occupied_heating</t>
+  </si>
+  <si>
+    <t>standard_reports.time_setpoint_not_met_during_occupied_hours</t>
+  </si>
+  <si>
+    <t>standard_reports.total_building_area</t>
   </si>
 </sst>
 </file>
@@ -7114,7 +7114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y223"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
     </sheetView>
@@ -9111,9 +9111,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:L33"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -9726,10 +9726,10 @@
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30" t="s">
+        <v>824</v>
+      </c>
+      <c r="D22" s="30" t="s">
         <v>808</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>809</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>64</v>
@@ -9750,14 +9750,14 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="30" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30" t="s">
-        <v>811</v>
+        <v>825</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E23" s="30" t="s">
         <v>64</v>
@@ -9778,14 +9778,14 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="30" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30" t="s">
-        <v>813</v>
+        <v>826</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E24" s="30" t="s">
         <v>64</v>
@@ -9806,14 +9806,14 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="30" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30" t="s">
-        <v>815</v>
+        <v>827</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="E25" s="30" t="s">
         <v>64</v>
@@ -9838,7 +9838,7 @@
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>712</v>
@@ -9866,7 +9866,7 @@
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="30" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="D27" s="30" t="s">
         <v>714</v>
@@ -9890,14 +9890,14 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="30" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="B28" s="30"/>
       <c r="C28" s="30" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="E28" s="31" t="s">
         <v>64</v>
@@ -9920,14 +9920,14 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="30" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="E29" s="31" t="s">
         <v>64</v>
@@ -9950,14 +9950,14 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="30" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="E30" s="31" t="s">
         <v>64</v>
@@ -9980,14 +9980,14 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="30" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="30" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="E31" s="31" t="s">
         <v>64</v>

--- a/projects/office_model0_Sys3.xlsx
+++ b/projects/office_model0_Sys3.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="562" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="13176" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="TrueFalse">Lookups!$C$12:$C$13</definedName>
     <definedName name="Workflow">Lookups!$E$12:$E$13</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2406" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2403" uniqueCount="825">
   <si>
     <t>type</t>
   </si>
@@ -1891,12 +1891,6 @@
     <t xml:space="preserve"> - Worker Only - </t>
   </si>
   <si>
-    <t>1.6.1</t>
-  </si>
-  <si>
-    <t>AssetScore Cluster</t>
-  </si>
-  <si>
     <t>Delta X</t>
   </si>
   <si>
@@ -1906,12 +1900,6 @@
     <t>double</t>
   </si>
   <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>0.3.0</t>
-  </si>
-  <si>
     <t>bool</t>
   </si>
   <si>
@@ -2083,9 +2071,6 @@
     <t>noop</t>
   </si>
   <si>
-    <t>nlong</t>
-  </si>
-  <si>
     <t>Set Window to Wall Ratio by Facade North</t>
   </si>
   <si>
@@ -2155,12 +2140,6 @@
     <t>2013-01-21</t>
   </si>
   <si>
-    <t>calibration_data</t>
-  </si>
-  <si>
-    <t>Directory</t>
-  </si>
-  <si>
     <t>../../../lib/calibration_data/electric_billed_usages.json</t>
   </si>
   <si>
@@ -2326,15 +2305,9 @@
     <t>NationalGrid Model0</t>
   </si>
   <si>
-    <t>../Cofee-measures</t>
-  </si>
-  <si>
     <t>../analysis</t>
   </si>
   <si>
-    <t>../lib/calibration_data</t>
-  </si>
-  <si>
     <t>Add Sys 3 - PSZ-AC Ngrid</t>
   </si>
   <si>
@@ -2525,6 +2498,24 @@
   </si>
   <si>
     <t>standard_reports.total_building_area</t>
+  </si>
+  <si>
+    <t>../measures</t>
+  </si>
+  <si>
+    <t>1.8.0-pre12</t>
+  </si>
+  <si>
+    <t>0.3.5</t>
+  </si>
+  <si>
+    <t>bball</t>
+  </si>
+  <si>
+    <t>Default Cluster</t>
+  </si>
+  <si>
+    <t>office</t>
   </si>
 </sst>
 </file>
@@ -2534,7 +2525,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6661,17 +6652,17 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="81.83203125" customWidth="1"/>
+    <col min="1" max="1" width="81.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28">
+    <row r="1" spans="1:1" ht="28.8">
       <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28">
+    <row r="2" spans="1:1" ht="28.8">
       <c r="A2" s="36" t="s">
         <v>41</v>
       </c>
@@ -6691,16 +6682,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
@@ -6728,46 +6719,46 @@
         <v>436</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>622</v>
+        <v>821</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28">
+    <row r="4" spans="1:5" ht="28.8">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>680</v>
+        <v>822</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="42">
+    <row r="5" spans="1:5" ht="72">
       <c r="A5" s="1" t="s">
         <v>469</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>616</v>
+        <v>820</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46" customHeight="1">
+    <row r="6" spans="1:5" ht="46.05" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>470</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>617</v>
+        <v>823</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="28.8">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6786,7 +6777,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28">
+    <row r="8" spans="1:5" ht="28.8">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -6832,7 +6823,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>471</v>
@@ -6843,10 +6834,10 @@
         <v>25</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>761</v>
+        <v>819</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6854,10 +6845,10 @@
         <v>26</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6871,12 +6862,12 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="28.8">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
       <c r="B16" s="24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>608</v>
@@ -6904,7 +6895,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="57.6">
       <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
@@ -6922,14 +6913,14 @@
         <v>451</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="31" customFormat="1">
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="57.6">
       <c r="A23" s="11" t="s">
         <v>450</v>
       </c>
@@ -7006,12 +6997,12 @@
       <c r="C35" s="26"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="28">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>31</v>
@@ -7024,10 +7015,10 @@
         <v>29</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -7038,7 +7029,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>449</v>
@@ -7048,17 +7039,18 @@
       <c r="A40" s="31" t="s">
         <v>32</v>
       </c>
+      <c r="B40" s="31" t="s">
+        <v>824</v>
+      </c>
       <c r="C40" s="31" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>691</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="56">
+        <v>686</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="57.6">
       <c r="A42" s="11" t="s">
         <v>35</v>
       </c>
@@ -7066,7 +7058,7 @@
         <v>34</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="13" t="s">
@@ -7074,15 +7066,8 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="31" t="s">
-        <v>705</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>704</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>763</v>
-      </c>
+      <c r="A43" s="31"/>
+      <c r="C43" s="31"/>
     </row>
     <row r="44" spans="1:5" s="31" customFormat="1">
       <c r="B44" s="26"/>
@@ -7119,29 +7104,29 @@
       <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.1640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" style="31" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.1640625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" style="31" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
-    <col min="13" max="14" width="7.83203125" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.5" style="31"/>
-    <col min="16" max="16" width="11.5" style="31" customWidth="1"/>
+    <col min="13" max="14" width="7.77734375" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" style="31"/>
+    <col min="16" max="16" width="11.44140625" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
     <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.1640625" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.5" style="31"/>
+    <col min="19" max="19" width="46.109375" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.44140625" style="31"/>
     <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.5" style="31"/>
+    <col min="24" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18">
@@ -7179,7 +7164,7 @@
       <c r="X1" s="46"/>
       <c r="Y1" s="46"/>
     </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="15">
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.6">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7195,7 +7180,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="45">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="62.4">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7236,7 +7221,7 @@
         <v>9</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="O3" s="16" t="s">
         <v>475</v>
@@ -7274,13 +7259,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>68</v>
@@ -7293,16 +7278,16 @@
         <v>21</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
     </row>
     <row r="6" spans="1:25" s="30" customFormat="1">
@@ -7310,16 +7295,16 @@
         <v>21</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
     </row>
     <row r="7" spans="1:25" s="38" customFormat="1">
@@ -7327,13 +7312,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E7" s="38" t="s">
         <v>68</v>
@@ -7346,16 +7331,16 @@
         <v>21</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -7371,16 +7356,16 @@
         <v>21</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -7394,16 +7379,16 @@
         <v>21</v>
       </c>
       <c r="D10" s="31" t="s">
+        <v>651</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>652</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="H10" s="31" t="s">
         <v>655</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>656</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>619</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>659</v>
       </c>
       <c r="I10" s="31"/>
     </row>
@@ -7412,13 +7397,13 @@
         <v>21</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="H11" s="31" t="b">
         <v>1</v>
@@ -7430,13 +7415,13 @@
         <v>21</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="H12" s="31" t="b">
         <v>1</v>
@@ -7448,13 +7433,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="E13" s="38" t="s">
         <v>68</v>
@@ -7462,12 +7447,12 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:25" s="30" customFormat="1" ht="17">
+    <row r="14" spans="1:25" s="30" customFormat="1" ht="17.399999999999999">
       <c r="B14" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>198</v>
@@ -7476,7 +7461,7 @@
         <v>64</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="H14" s="43">
         <v>104666</v>
@@ -7489,7 +7474,7 @@
       </c>
       <c r="C15" s="44"/>
       <c r="D15" s="44" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E15" s="44" t="s">
         <v>200</v>
@@ -7507,7 +7492,7 @@
         <v>21</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>202</v>
@@ -7526,7 +7511,7 @@
       </c>
       <c r="C17" s="44"/>
       <c r="D17" s="44" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E17" s="44" t="s">
         <v>204</v>
@@ -7535,7 +7520,7 @@
         <v>64</v>
       </c>
       <c r="G17" s="44" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="H17" s="44">
         <v>12</v>
@@ -7546,10 +7531,10 @@
         <v>21</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="F18" s="30" t="s">
         <v>64</v>
@@ -7563,10 +7548,10 @@
         <v>21</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>64</v>
@@ -7580,10 +7565,10 @@
         <v>21</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="F20" s="30" t="s">
         <v>64</v>
@@ -7597,10 +7582,10 @@
         <v>21</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>64</v>
@@ -7614,10 +7599,10 @@
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>64</v>
@@ -7631,10 +7616,10 @@
         <v>21</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>64</v>
@@ -7648,10 +7633,10 @@
         <v>21</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>64</v>
@@ -7665,10 +7650,10 @@
         <v>21</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>64</v>
@@ -7682,10 +7667,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="F26" s="30" t="s">
         <v>64</v>
@@ -7699,10 +7684,10 @@
         <v>21</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="F27" s="30" t="s">
         <v>64</v>
@@ -7716,10 +7701,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="F28" s="30" t="s">
         <v>64</v>
@@ -7733,10 +7718,10 @@
         <v>21</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="F29" s="30" t="s">
         <v>64</v>
@@ -7750,10 +7735,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="F30" s="30" t="s">
         <v>64</v>
@@ -7767,13 +7752,13 @@
         <v>1</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E31" s="38" t="s">
         <v>68</v>
@@ -7786,13 +7771,13 @@
         <v>21</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F32" s="31" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
@@ -7802,13 +7787,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="E33" s="38" t="s">
         <v>68</v>
@@ -7819,10 +7804,10 @@
         <v>21</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="F34" s="30" t="s">
         <v>64</v>
@@ -7836,10 +7821,10 @@
         <v>21</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="F35" s="30" t="s">
         <v>64</v>
@@ -7853,7 +7838,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="C36" s="38" t="s">
         <v>74</v>
@@ -7872,16 +7857,16 @@
         <v>21</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="E37" s="31" t="s">
         <v>75</v>
       </c>
       <c r="F37" s="31" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="H37" s="31">
         <v>10</v>
@@ -7893,7 +7878,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="38" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="C38" s="38" t="s">
         <v>76</v>
@@ -7912,13 +7897,13 @@
         <v>21</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E39" s="31" t="s">
         <v>77</v>
       </c>
       <c r="F39" s="31" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H39" s="31">
         <v>0.4</v>
@@ -7937,16 +7922,16 @@
         <v>21</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="E40" s="31" t="s">
         <v>79</v>
       </c>
       <c r="F40" s="31" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G40" s="31" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="H40" s="31">
         <v>30</v>
@@ -7965,19 +7950,19 @@
         <v>21</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="E41" s="31" t="s">
         <v>81</v>
       </c>
       <c r="F41" s="31" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G41" s="31" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="H41" s="31" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
@@ -7991,7 +7976,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="C42" s="38" t="s">
         <v>76</v>
@@ -8010,13 +7995,13 @@
         <v>21</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="E43" s="31" t="s">
         <v>77</v>
       </c>
       <c r="F43" s="31" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H43" s="31">
         <v>0.4</v>
@@ -8035,16 +8020,16 @@
         <v>21</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="E44" s="31" t="s">
         <v>79</v>
       </c>
       <c r="F44" s="31" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G44" s="31" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="H44" s="31">
         <v>30</v>
@@ -8063,16 +8048,16 @@
         <v>21</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="E45" s="31" t="s">
         <v>81</v>
       </c>
       <c r="F45" s="31" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G45" s="31" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="H45" s="31" t="s">
         <v>82</v>
@@ -8089,7 +8074,7 @@
         <v>1</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="C46" s="38" t="s">
         <v>76</v>
@@ -8108,13 +8093,13 @@
         <v>21</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="E47" s="31" t="s">
         <v>77</v>
       </c>
       <c r="F47" s="31" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H47" s="31">
         <v>0.4</v>
@@ -8133,16 +8118,16 @@
         <v>21</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="E48" s="31" t="s">
         <v>79</v>
       </c>
       <c r="F48" s="31" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G48" s="31" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="H48" s="31">
         <v>30</v>
@@ -8161,19 +8146,19 @@
         <v>21</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="E49" s="31" t="s">
         <v>81</v>
       </c>
       <c r="F49" s="31" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G49" s="31" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="H49" s="31" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
@@ -8187,7 +8172,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="38" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="C50" s="38" t="s">
         <v>76</v>
@@ -8206,13 +8191,13 @@
         <v>21</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="E51" s="31" t="s">
         <v>77</v>
       </c>
       <c r="F51" s="31" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H51" s="31">
         <v>0.4</v>
@@ -8231,16 +8216,16 @@
         <v>21</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="E52" s="31" t="s">
         <v>79</v>
       </c>
       <c r="F52" s="31" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G52" s="31" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="H52" s="31">
         <v>30</v>
@@ -8259,19 +8244,19 @@
         <v>21</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="E53" s="31" t="s">
         <v>81</v>
       </c>
       <c r="F53" s="31" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G53" s="31" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="H53" s="31" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
@@ -8285,13 +8270,13 @@
         <v>1</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="C54" s="38" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="D54" s="38" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="E54" s="38" t="s">
         <v>68</v>
@@ -8304,16 +8289,16 @@
         <v>21</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="F55" s="31" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H55" s="31" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="I55" s="31"/>
     </row>
@@ -8322,16 +8307,16 @@
         <v>21</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="F56" s="31" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H56" s="31" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="I56" s="31"/>
     </row>
@@ -8340,16 +8325,16 @@
         <v>21</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="E57" s="31" t="s">
+        <v>693</v>
+      </c>
+      <c r="F57" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="H57" s="41" t="s">
         <v>698</v>
-      </c>
-      <c r="F57" s="31" t="s">
-        <v>619</v>
-      </c>
-      <c r="H57" s="41" t="s">
-        <v>703</v>
       </c>
       <c r="I57" s="31"/>
     </row>
@@ -8358,16 +8343,16 @@
         <v>21</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="F58" s="31" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H58" s="41" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="I58" s="31"/>
     </row>
@@ -8376,13 +8361,13 @@
         <v>1</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="D59" s="38" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="E59" s="38" t="s">
         <v>68</v>
@@ -8395,16 +8380,16 @@
         <v>21</v>
       </c>
       <c r="D60" s="31" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="F60" s="31" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H60" s="31" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="I60" s="31"/>
     </row>
@@ -8413,16 +8398,16 @@
         <v>21</v>
       </c>
       <c r="D61" s="31" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="F61" s="31" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G61" s="31" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="H61" s="31">
         <v>1</v>
@@ -8434,13 +8419,13 @@
         <v>1</v>
       </c>
       <c r="B62" s="38" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C62" s="38" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="D62" s="38" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="E62" s="38" t="s">
         <v>233</v>
@@ -9111,22 +9096,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="29.5" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.44140625" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="31" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="31" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="31" customWidth="1"/>
+    <col min="6" max="7" width="10.44140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="31" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
     <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.5" style="31"/>
+    <col min="11" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18">
@@ -9144,12 +9129,12 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="15">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.6">
       <c r="A2" s="8" t="s">
         <v>459</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>460</v>
@@ -9161,37 +9146,37 @@
         <v>11</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>624</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>625</v>
       </c>
-      <c r="H2" s="8" t="s">
+    </row>
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="46.8">
+      <c r="A3" s="14" t="s">
         <v>626</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>627</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>628</v>
-      </c>
-      <c r="K2" s="8" t="s">
+      <c r="B3" s="14" t="s">
+        <v>640</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>629</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="30">
-      <c r="A3" s="14" t="s">
-        <v>630</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>644</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>633</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>461</v>
@@ -9203,27 +9188,27 @@
         <v>461</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="30" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>468</v>
@@ -9246,13 +9231,13 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="30" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>468</v>
@@ -9276,13 +9261,13 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="30" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>468</v>
@@ -9305,13 +9290,13 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="30" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>468</v>
@@ -9334,11 +9319,11 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="30" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>468</v>
@@ -9362,11 +9347,11 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="30" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>468</v>
@@ -9390,11 +9375,11 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="30" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>468</v>
@@ -9417,11 +9402,11 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="30" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>468</v>
@@ -9444,11 +9429,11 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="30" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>468</v>
@@ -9471,11 +9456,11 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="30" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>468</v>
@@ -9498,11 +9483,11 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="30" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>468</v>
@@ -9526,11 +9511,11 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="30" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>468</v>
@@ -9554,11 +9539,11 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="30" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>468</v>
@@ -9582,11 +9567,11 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="30" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>468</v>
@@ -9610,11 +9595,11 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="30" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>468</v>
@@ -9638,11 +9623,11 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="30" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="D19" s="30" t="s">
         <v>468</v>
@@ -9666,11 +9651,11 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="30" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>468</v>
@@ -9694,11 +9679,11 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="30" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>468</v>
@@ -9722,14 +9707,14 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="30" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>64</v>
@@ -9750,14 +9735,14 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="30" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="E23" s="30" t="s">
         <v>64</v>
@@ -9778,14 +9763,14 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="30" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="E24" s="30" t="s">
         <v>64</v>
@@ -9806,14 +9791,14 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="30" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="E25" s="30" t="s">
         <v>64</v>
@@ -9834,14 +9819,14 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="30" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="E26" s="30" t="s">
         <v>64</v>
@@ -9862,14 +9847,14 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="30" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="30" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="E27" s="30" t="s">
         <v>64</v>
@@ -9890,14 +9875,14 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="30" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="B28" s="30"/>
       <c r="C28" s="30" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="E28" s="31" t="s">
         <v>64</v>
@@ -9920,14 +9905,14 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="30" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="E29" s="31" t="s">
         <v>64</v>
@@ -9950,14 +9935,14 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="30" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="E30" s="31" t="s">
         <v>64</v>
@@ -9980,14 +9965,14 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="30" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="30" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="E31" s="31" t="s">
         <v>64</v>
@@ -10069,19 +10054,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="15.6">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -10100,7 +10085,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="15.6">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -10121,7 +10106,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="15.6">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -10144,7 +10129,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="15.6">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -10167,7 +10152,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="15.6">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -10190,7 +10175,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="15.6">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -10213,7 +10198,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="15.6">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -10236,7 +10221,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="15.6">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -10259,7 +10244,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="15.6">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -10282,7 +10267,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="15.6">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -10305,7 +10290,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="15.6">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -10324,7 +10309,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="15.6">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -10345,7 +10330,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="15.6">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -10368,7 +10353,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="15.6">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -10391,7 +10376,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="15.6">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -10414,7 +10399,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="15.6">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -10437,7 +10422,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="15.6">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -10460,7 +10445,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="15.6">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -10483,7 +10468,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="15.6">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -10506,7 +10491,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="15.6">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -10529,7 +10514,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="15.6">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -10548,7 +10533,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="15.6">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -10571,7 +10556,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="15.6">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -10594,7 +10579,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="15.6">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -10617,7 +10602,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="15.6">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -10640,7 +10625,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="15.6">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -10663,7 +10648,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="15.6">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -10686,7 +10671,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="15.6">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -10709,7 +10694,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="15.6">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -10732,7 +10717,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" ht="15.6">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -10755,7 +10740,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15">
+    <row r="31" spans="1:9" ht="15.6">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -10774,7 +10759,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15">
+    <row r="32" spans="1:9" ht="15.6">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -10795,7 +10780,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15">
+    <row r="33" spans="1:9" ht="15.6">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -10818,7 +10803,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15">
+    <row r="34" spans="1:9" ht="15.6">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -10841,7 +10826,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15">
+    <row r="35" spans="1:9" ht="15.6">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -10864,7 +10849,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:9" ht="15.6">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -10887,7 +10872,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:9" ht="15.6">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -10910,7 +10895,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9" ht="15.6">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -10933,7 +10918,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:9" ht="15.6">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -10956,7 +10941,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:9" ht="15.6">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -10979,7 +10964,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:9" ht="15.6">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -10998,7 +10983,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15">
+    <row r="42" spans="1:9" ht="15.6">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -11019,7 +11004,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15">
+    <row r="43" spans="1:9" ht="15.6">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -11042,7 +11027,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15">
+    <row r="44" spans="1:9" ht="15.6">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -11065,7 +11050,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:9" ht="15.6">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -11088,7 +11073,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15">
+    <row r="46" spans="1:9" ht="15.6">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -11111,7 +11096,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15">
+    <row r="47" spans="1:9" ht="15.6">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -11134,7 +11119,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15">
+    <row r="48" spans="1:9" ht="15.6">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -11157,7 +11142,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15">
+    <row r="49" spans="1:9" ht="15.6">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -11180,7 +11165,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15">
+    <row r="50" spans="1:9" ht="15.6">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -11203,7 +11188,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15">
+    <row r="51" spans="1:9" ht="15.6">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -11222,7 +11207,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15">
+    <row r="52" spans="1:9" ht="15.6">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -11243,7 +11228,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15">
+    <row r="53" spans="1:9" ht="15.6">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -11266,7 +11251,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15">
+    <row r="54" spans="1:9" ht="15.6">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -11289,7 +11274,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15">
+    <row r="55" spans="1:9" ht="15.6">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -11312,7 +11297,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15">
+    <row r="56" spans="1:9" ht="15.6">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -11335,7 +11320,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15">
+    <row r="57" spans="1:9" ht="15.6">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -11358,7 +11343,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15">
+    <row r="58" spans="1:9" ht="15.6">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -11381,7 +11366,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15">
+    <row r="59" spans="1:9" ht="15.6">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -11404,7 +11389,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15">
+    <row r="60" spans="1:9" ht="15.6">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -11427,7 +11412,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15">
+    <row r="61" spans="1:9" ht="15.6">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -11446,7 +11431,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15">
+    <row r="62" spans="1:9" ht="15.6">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -11467,7 +11452,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15">
+    <row r="63" spans="1:9" ht="15.6">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -11492,7 +11477,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15">
+    <row r="64" spans="1:9" ht="15.6">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -11515,7 +11500,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15">
+    <row r="65" spans="1:9" ht="15.6">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -11538,7 +11523,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15">
+    <row r="66" spans="1:9" ht="15.6">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -11561,7 +11546,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15">
+    <row r="67" spans="1:9" ht="15.6">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -11584,7 +11569,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15">
+    <row r="68" spans="1:9" ht="15.6">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -11607,7 +11592,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15">
+    <row r="69" spans="1:9" ht="15.6">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -11630,7 +11615,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15">
+    <row r="70" spans="1:9" ht="15.6">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -11653,7 +11638,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15">
+    <row r="71" spans="1:9" ht="15.6">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -11676,7 +11661,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15">
+    <row r="72" spans="1:9" ht="15.6">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -11695,7 +11680,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15">
+    <row r="73" spans="1:9" ht="15.6">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -11716,7 +11701,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15">
+    <row r="74" spans="1:9" ht="15.6">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -11739,7 +11724,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15">
+    <row r="75" spans="1:9" ht="15.6">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -11764,7 +11749,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15">
+    <row r="76" spans="1:9" ht="15.6">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -11787,7 +11772,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15">
+    <row r="77" spans="1:9" ht="15.6">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -11810,7 +11795,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15">
+    <row r="78" spans="1:9" ht="15.6">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -11833,7 +11818,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15">
+    <row r="79" spans="1:9" ht="15.6">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -11856,7 +11841,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15">
+    <row r="80" spans="1:9" ht="15.6">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -11879,7 +11864,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15">
+    <row r="81" spans="1:9" ht="15.6">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -11902,7 +11887,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15">
+    <row r="82" spans="1:9" ht="15.6">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -11925,7 +11910,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15">
+    <row r="83" spans="1:9" ht="15.6">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -11948,7 +11933,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15">
+    <row r="84" spans="1:9" ht="15.6">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -11971,7 +11956,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15">
+    <row r="85" spans="1:9" ht="15.6">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -11994,7 +11979,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15">
+    <row r="86" spans="1:9" ht="15.6">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -12013,7 +11998,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15">
+    <row r="87" spans="1:9" ht="15.6">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -12036,7 +12021,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15">
+    <row r="88" spans="1:9" ht="15.6">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -12059,7 +12044,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15">
+    <row r="89" spans="1:9" ht="15.6">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -12082,7 +12067,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15">
+    <row r="90" spans="1:9" ht="15.6">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -12105,7 +12090,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15">
+    <row r="91" spans="1:9" ht="15.6">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -12128,7 +12113,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15">
+    <row r="92" spans="1:9" ht="15.6">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -12151,7 +12136,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15">
+    <row r="93" spans="1:9" ht="15.6">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -12174,7 +12159,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15">
+    <row r="94" spans="1:9" ht="15.6">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -12197,7 +12182,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15">
+    <row r="95" spans="1:9" ht="15.6">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -12220,7 +12205,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15">
+    <row r="96" spans="1:9" ht="15.6">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -12243,7 +12228,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" ht="15.6">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -12262,7 +12247,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15">
+    <row r="98" spans="1:9" ht="15.6">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -12287,7 +12272,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15">
+    <row r="99" spans="1:9" ht="15.6">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -12306,7 +12291,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15">
+    <row r="100" spans="1:9" ht="15.6">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -12327,7 +12312,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15">
+    <row r="101" spans="1:9" ht="15.6">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -12352,7 +12337,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15">
+    <row r="102" spans="1:9" ht="15.6">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -12371,7 +12356,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15">
+    <row r="103" spans="1:9" ht="15.6">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -12394,7 +12379,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15">
+    <row r="104" spans="1:9" ht="15.6">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -12419,7 +12404,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15">
+    <row r="105" spans="1:9" ht="15.6">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -12442,7 +12427,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15">
+    <row r="106" spans="1:9" ht="15.6">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -12463,7 +12448,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15">
+    <row r="107" spans="1:9" ht="15.6">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -12482,7 +12467,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15">
+    <row r="108" spans="1:9" ht="15.6">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -12507,7 +12492,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15">
+    <row r="109" spans="1:9" ht="15.6">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -12530,7 +12515,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15">
+    <row r="110" spans="1:9" ht="15.6">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -12553,7 +12538,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15">
+    <row r="111" spans="1:9" ht="15.6">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -12576,7 +12561,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15">
+    <row r="112" spans="1:9" ht="15.6">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -12599,7 +12584,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15">
+    <row r="113" spans="1:9" ht="15.6">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -12622,7 +12607,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15">
+    <row r="114" spans="1:9" ht="15.6">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -12645,7 +12630,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15">
+    <row r="115" spans="1:9" ht="15.6">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -12664,7 +12649,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15">
+    <row r="116" spans="1:9" ht="15.6">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -12687,7 +12672,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15">
+    <row r="117" spans="1:9" ht="15.6">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -12710,7 +12695,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15">
+    <row r="118" spans="1:9" ht="15.6">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -12733,7 +12718,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15">
+    <row r="119" spans="1:9" ht="15.6">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -12752,7 +12737,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15">
+    <row r="120" spans="1:9" ht="15.6">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -12775,7 +12760,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15">
+    <row r="121" spans="1:9" ht="15.6">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -12798,7 +12783,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15">
+    <row r="122" spans="1:9" ht="15.6">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -12821,7 +12806,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15">
+    <row r="123" spans="1:9" ht="15.6">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -12844,7 +12829,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15">
+    <row r="124" spans="1:9" ht="15.6">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -12867,7 +12852,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15">
+    <row r="125" spans="1:9" ht="15.6">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -12890,7 +12875,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15">
+    <row r="126" spans="1:9" ht="15.6">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -12909,7 +12894,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15">
+    <row r="127" spans="1:9" ht="15.6">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -12934,7 +12919,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15">
+    <row r="128" spans="1:9" ht="15.6">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -12957,7 +12942,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15">
+    <row r="129" spans="1:9" ht="15.6">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -12980,7 +12965,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15">
+    <row r="130" spans="1:9" ht="15.6">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -13003,7 +12988,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15">
+    <row r="131" spans="1:9" ht="15.6">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -13026,7 +13011,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15">
+    <row r="132" spans="1:9" ht="15.6">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -13049,7 +13034,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15">
+    <row r="133" spans="1:9" ht="15.6">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -13072,7 +13057,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15">
+    <row r="134" spans="1:9" ht="15.6">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -13095,7 +13080,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15">
+    <row r="135" spans="1:9" ht="15.6">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -13118,7 +13103,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15">
+    <row r="136" spans="1:9" ht="15.6">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -13137,7 +13122,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15">
+    <row r="137" spans="1:9" ht="15.6">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -13162,7 +13147,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15">
+    <row r="138" spans="1:9" ht="15.6">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -13183,7 +13168,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15">
+    <row r="139" spans="1:9" ht="15.6">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -13206,7 +13191,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15">
+    <row r="140" spans="1:9" ht="15.6">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -13229,7 +13214,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15">
+    <row r="141" spans="1:9" ht="15.6">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -13252,7 +13237,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15">
+    <row r="142" spans="1:9" ht="15.6">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -13275,7 +13260,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15">
+    <row r="143" spans="1:9" ht="15.6">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -13298,7 +13283,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15">
+    <row r="144" spans="1:9" ht="15.6">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -13321,7 +13306,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15">
+    <row r="145" spans="1:9" ht="15.6">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -13344,7 +13329,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15">
+    <row r="146" spans="1:9" ht="15.6">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -13367,7 +13352,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15">
+    <row r="147" spans="1:9" ht="15.6">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -13390,7 +13375,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15">
+    <row r="148" spans="1:9" ht="15.6">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -13413,7 +13398,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15">
+    <row r="149" spans="1:9" ht="15.6">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -13436,7 +13421,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15">
+    <row r="150" spans="1:9" ht="15.6">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -13459,7 +13444,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15">
+    <row r="151" spans="1:9" ht="15.6">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -13478,7 +13463,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15">
+    <row r="152" spans="1:9" ht="15.6">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -13501,7 +13486,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15">
+    <row r="153" spans="1:9" ht="15.6">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -13520,7 +13505,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15">
+    <row r="154" spans="1:9" ht="15.6">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -13543,7 +13528,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15">
+    <row r="155" spans="1:9" ht="15.6">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -13566,7 +13551,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15">
+    <row r="156" spans="1:9" ht="15.6">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -13585,7 +13570,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15">
+    <row r="157" spans="1:9" ht="15.6">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -13610,7 +13595,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15">
+    <row r="158" spans="1:9" ht="15.6">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -13633,7 +13618,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15">
+    <row r="159" spans="1:9" ht="15.6">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -13656,7 +13641,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15">
+    <row r="160" spans="1:9" ht="15.6">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -13679,7 +13664,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15">
+    <row r="161" spans="1:9" ht="15.6">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -13702,7 +13687,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15">
+    <row r="162" spans="1:9" ht="15.6">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -13725,7 +13710,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15">
+    <row r="163" spans="1:9" ht="15.6">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -13748,7 +13733,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15">
+    <row r="164" spans="1:9" ht="15.6">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -13771,7 +13756,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15">
+    <row r="165" spans="1:9" ht="15.6">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -13794,7 +13779,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15">
+    <row r="166" spans="1:9" ht="15.6">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -13817,7 +13802,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15">
+    <row r="167" spans="1:9" ht="15.6">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -13836,7 +13821,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15">
+    <row r="168" spans="1:9" ht="15.6">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -13861,7 +13846,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15">
+    <row r="169" spans="1:9" ht="15.6">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -13884,7 +13869,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15">
+    <row r="170" spans="1:9" ht="15.6">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -13907,7 +13892,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15">
+    <row r="171" spans="1:9" ht="15.6">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -13930,7 +13915,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15">
+    <row r="172" spans="1:9" ht="15.6">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -13953,7 +13938,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15">
+    <row r="173" spans="1:9" ht="15.6">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -13976,7 +13961,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15">
+    <row r="174" spans="1:9" ht="15.6">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -13999,7 +13984,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15">
+    <row r="175" spans="1:9" ht="15.6">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -14022,7 +14007,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15">
+    <row r="176" spans="1:9" ht="15.6">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -14045,7 +14030,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15">
+    <row r="177" spans="1:9" ht="15.6">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -14068,7 +14053,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15">
+    <row r="178" spans="1:9" ht="15.6">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -14087,7 +14072,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15">
+    <row r="179" spans="1:9" ht="15.6">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -14110,7 +14095,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15">
+    <row r="180" spans="1:9" ht="15.6">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -14133,7 +14118,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15">
+    <row r="181" spans="1:9" ht="15.6">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -14156,7 +14141,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15">
+    <row r="182" spans="1:9" ht="15.6">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -14179,7 +14164,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15">
+    <row r="183" spans="1:9" ht="15.6">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -14198,7 +14183,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15">
+    <row r="184" spans="1:9" ht="15.6">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -14221,7 +14206,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15">
+    <row r="185" spans="1:9" ht="15.6">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -14244,7 +14229,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15">
+    <row r="186" spans="1:9" ht="15.6">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -14267,7 +14252,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15">
+    <row r="187" spans="1:9" ht="15.6">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -14290,7 +14275,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15">
+    <row r="188" spans="1:9" ht="15.6">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -14309,7 +14294,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15">
+    <row r="189" spans="1:9" ht="15.6">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -14330,7 +14315,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15">
+    <row r="190" spans="1:9" ht="15.6">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -14353,7 +14338,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15">
+    <row r="191" spans="1:9" ht="15.6">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -14372,7 +14357,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15">
+    <row r="192" spans="1:9" ht="15.6">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -14395,7 +14380,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15">
+    <row r="193" spans="1:9" ht="15.6">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -14420,7 +14405,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15">
+    <row r="194" spans="1:9" ht="15.6">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -14441,7 +14426,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15">
+    <row r="195" spans="1:9" ht="15.6">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -14466,7 +14451,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15">
+    <row r="196" spans="1:9" ht="15.6">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -14491,7 +14476,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15">
+    <row r="197" spans="1:9" ht="15.6">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -14510,7 +14495,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15">
+    <row r="198" spans="1:9" ht="15.6">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -14535,7 +14520,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15">
+    <row r="199" spans="1:9" ht="15.6">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -14558,7 +14543,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15">
+    <row r="200" spans="1:9" ht="15.6">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -14581,7 +14566,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15">
+    <row r="201" spans="1:9" ht="15.6">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -14604,7 +14589,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15">
+    <row r="202" spans="1:9" ht="15.6">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -14627,7 +14612,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15">
+    <row r="203" spans="1:9" ht="15.6">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -14650,7 +14635,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15">
+    <row r="204" spans="1:9" ht="15.6">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -14673,7 +14658,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15">
+    <row r="205" spans="1:9" ht="15.6">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -14696,7 +14681,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15">
+    <row r="206" spans="1:9" ht="15.6">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -14719,7 +14704,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15">
+    <row r="207" spans="1:9" ht="15.6">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -14738,7 +14723,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15">
+    <row r="208" spans="1:9" ht="15.6">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -14763,7 +14748,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15">
+    <row r="209" spans="1:9" ht="15.6">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -14786,7 +14771,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15">
+    <row r="210" spans="1:9" ht="15.6">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -14809,7 +14794,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15">
+    <row r="211" spans="1:9" ht="15.6">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -14832,7 +14817,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15">
+    <row r="212" spans="1:9" ht="15.6">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -14855,7 +14840,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15">
+    <row r="213" spans="1:9" ht="15.6">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -14878,7 +14863,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15">
+    <row r="214" spans="1:9" ht="15.6">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -14901,7 +14886,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15">
+    <row r="215" spans="1:9" ht="15.6">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -14924,7 +14909,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15">
+    <row r="216" spans="1:9" ht="15.6">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -14947,7 +14932,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15">
+    <row r="217" spans="1:9" ht="15.6">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -14966,7 +14951,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15">
+    <row r="218" spans="1:9" ht="15.6">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -14987,7 +14972,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15">
+    <row r="219" spans="1:9" ht="15.6">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -15010,7 +14995,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15">
+    <row r="220" spans="1:9" ht="15.6">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -15033,7 +15018,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15">
+    <row r="221" spans="1:9" ht="15.6">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -15056,7 +15041,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15">
+    <row r="222" spans="1:9" ht="15.6">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -15079,7 +15064,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15">
+    <row r="223" spans="1:9" ht="15.6">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -15102,7 +15087,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15">
+    <row r="224" spans="1:9" ht="15.6">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -15125,7 +15110,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15">
+    <row r="225" spans="1:9" ht="15.6">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -15148,7 +15133,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15">
+    <row r="226" spans="1:9" ht="15.6">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -15171,7 +15156,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15">
+    <row r="227" spans="1:9" ht="15.6">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -15194,7 +15179,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15">
+    <row r="228" spans="1:9" ht="15.6">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -15217,7 +15202,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15">
+    <row r="229" spans="1:9" ht="15.6">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -15240,7 +15225,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15">
+    <row r="230" spans="1:9" ht="15.6">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -15263,7 +15248,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15">
+    <row r="231" spans="1:9" ht="15.6">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -15286,7 +15271,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15">
+    <row r="232" spans="1:9" ht="15.6">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -15309,7 +15294,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15">
+    <row r="233" spans="1:9" ht="15.6">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -15332,7 +15317,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15">
+    <row r="234" spans="1:9" ht="15.6">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -15351,7 +15336,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15">
+    <row r="235" spans="1:9" ht="15.6">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -15372,7 +15357,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15">
+    <row r="236" spans="1:9" ht="15.6">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -15395,7 +15380,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15">
+    <row r="237" spans="1:9" ht="15.6">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -15418,7 +15403,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15">
+    <row r="238" spans="1:9" ht="15.6">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -15441,7 +15426,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15">
+    <row r="239" spans="1:9" ht="15.6">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -15464,7 +15449,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15">
+    <row r="240" spans="1:9" ht="15.6">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -15487,7 +15472,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15">
+    <row r="241" spans="1:9" ht="15.6">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -15510,7 +15495,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15">
+    <row r="242" spans="1:9" ht="15.6">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -15533,7 +15518,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15">
+    <row r="243" spans="1:9" ht="15.6">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -15556,7 +15541,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15">
+    <row r="244" spans="1:9" ht="15.6">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -15579,7 +15564,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15">
+    <row r="245" spans="1:9" ht="15.6">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -15602,7 +15587,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15">
+    <row r="246" spans="1:9" ht="15.6">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -15625,7 +15610,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15">
+    <row r="247" spans="1:9" ht="15.6">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -15648,7 +15633,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15">
+    <row r="248" spans="1:9" ht="15.6">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -15671,7 +15656,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15">
+    <row r="249" spans="1:9" ht="15.6">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -15694,7 +15679,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15">
+    <row r="250" spans="1:9" ht="15.6">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -15717,7 +15702,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15">
+    <row r="251" spans="1:9" ht="15.6">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -15736,7 +15721,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15">
+    <row r="252" spans="1:9" ht="15.6">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -15761,7 +15746,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15">
+    <row r="253" spans="1:9" ht="15.6">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -15784,7 +15769,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15">
+    <row r="254" spans="1:9" ht="15.6">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -15807,7 +15792,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15">
+    <row r="255" spans="1:9" ht="15.6">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -15830,7 +15815,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15">
+    <row r="256" spans="1:9" ht="15.6">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -15853,7 +15838,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15">
+    <row r="257" spans="1:9" ht="15.6">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -15872,7 +15857,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15">
+    <row r="258" spans="1:9" ht="15.6">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -15897,7 +15882,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15">
+    <row r="259" spans="1:9" ht="15.6">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -15920,7 +15905,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15">
+    <row r="260" spans="1:9" ht="15.6">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -15939,7 +15924,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15">
+    <row r="261" spans="1:9" ht="15.6">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -15958,7 +15943,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15">
+    <row r="262" spans="1:9" ht="15.6">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -15977,7 +15962,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15">
+    <row r="263" spans="1:9" ht="15.6">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -15998,7 +15983,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15">
+    <row r="264" spans="1:9" ht="15.6">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -16021,7 +16006,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15">
+    <row r="265" spans="1:9" ht="15.6">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -16044,7 +16029,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15">
+    <row r="266" spans="1:9" ht="15.6">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -16067,7 +16052,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15">
+    <row r="267" spans="1:9" ht="15.6">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -16090,7 +16075,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15">
+    <row r="268" spans="1:9" ht="15.6">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -16113,7 +16098,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15">
+    <row r="269" spans="1:9" ht="15.6">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -16136,7 +16121,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15">
+    <row r="270" spans="1:9" ht="15.6">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -16159,7 +16144,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15">
+    <row r="271" spans="1:9" ht="15.6">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -16182,7 +16167,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15">
+    <row r="272" spans="1:9" ht="15.6">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -16205,7 +16190,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15">
+    <row r="273" spans="1:9" ht="15.6">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -16228,7 +16213,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15">
+    <row r="274" spans="1:9" ht="15.6">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -16247,7 +16232,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15">
+    <row r="275" spans="1:9" ht="15.6">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -16270,7 +16255,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15">
+    <row r="276" spans="1:9" ht="15.6">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -16289,7 +16274,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15">
+    <row r="277" spans="1:9" ht="15.6">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -16314,7 +16299,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15">
+    <row r="278" spans="1:9" ht="15.6">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -16337,7 +16322,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15">
+    <row r="279" spans="1:9" ht="15.6">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -16360,7 +16345,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15">
+    <row r="280" spans="1:9" ht="15.6">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -16383,7 +16368,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15">
+    <row r="281" spans="1:9" ht="15.6">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -16406,7 +16391,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15">
+    <row r="282" spans="1:9" ht="15.6">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -16429,7 +16414,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15">
+    <row r="283" spans="1:9" ht="15.6">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -16452,7 +16437,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15">
+    <row r="284" spans="1:9" ht="15.6">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -16475,7 +16460,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15">
+    <row r="285" spans="1:9" ht="15.6">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -16498,7 +16483,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15">
+    <row r="286" spans="1:9" ht="15.6">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -16521,7 +16506,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15">
+    <row r="287" spans="1:9" ht="15.6">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -16544,7 +16529,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15">
+    <row r="288" spans="1:9" ht="15.6">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -16563,7 +16548,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15">
+    <row r="289" spans="1:9" ht="15.6">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -16586,7 +16571,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15">
+    <row r="290" spans="1:9" ht="15.6">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -16605,7 +16590,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15">
+    <row r="291" spans="1:9" ht="15.6">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -16626,7 +16611,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15">
+    <row r="292" spans="1:9" ht="15.6">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -16645,7 +16630,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15">
+    <row r="293" spans="1:9" ht="15.6">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -16666,7 +16651,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15">
+    <row r="294" spans="1:9" ht="15.6">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -16685,7 +16670,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15">
+    <row r="295" spans="1:9" ht="15.6">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -16706,7 +16691,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15">
+    <row r="296" spans="1:9" ht="15.6">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -16725,7 +16710,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15">
+    <row r="297" spans="1:9" ht="15.6">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -16748,7 +16733,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15">
+    <row r="298" spans="1:9" ht="15.6">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -16767,7 +16752,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15">
+    <row r="299" spans="1:9" ht="15.6">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -16792,7 +16777,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15">
+    <row r="300" spans="1:9" ht="15.6">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -16815,7 +16800,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15">
+    <row r="301" spans="1:9" ht="15.6">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -16838,7 +16823,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15">
+    <row r="302" spans="1:9" ht="15.6">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -16861,7 +16846,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15">
+    <row r="303" spans="1:9" ht="15.6">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -16884,7 +16869,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15">
+    <row r="304" spans="1:9" ht="15.6">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -16907,7 +16892,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15">
+    <row r="305" spans="1:9" ht="15.6">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -16930,7 +16915,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15">
+    <row r="306" spans="1:9" ht="15.6">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -16953,7 +16938,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15">
+    <row r="307" spans="1:9" ht="15.6">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -16976,7 +16961,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15">
+    <row r="308" spans="1:9" ht="15.6">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -16995,7 +16980,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15">
+    <row r="309" spans="1:9" ht="15.6">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -17018,7 +17003,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15">
+    <row r="310" spans="1:9" ht="15.6">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -17041,7 +17026,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15">
+    <row r="311" spans="1:9" ht="15.6">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -17064,7 +17049,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15">
+    <row r="312" spans="1:9" ht="15.6">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -17087,7 +17072,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15">
+    <row r="313" spans="1:9" ht="15.6">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -17106,7 +17091,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15">
+    <row r="314" spans="1:9" ht="15.6">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -17129,7 +17114,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15">
+    <row r="315" spans="1:9" ht="15.6">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -17152,7 +17137,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15">
+    <row r="316" spans="1:9" ht="15.6">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -17177,7 +17162,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15">
+    <row r="317" spans="1:9" ht="15.6">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -17196,7 +17181,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15">
+    <row r="318" spans="1:9" ht="15.6">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -17221,7 +17206,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15">
+    <row r="319" spans="1:9" ht="15.6">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -17244,7 +17229,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15">
+    <row r="320" spans="1:9" ht="15.6">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -17263,7 +17248,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15">
+    <row r="321" spans="1:9" ht="15.6">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -17284,7 +17269,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15">
+    <row r="322" spans="1:9" ht="15.6">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -17305,7 +17290,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15">
+    <row r="323" spans="1:9" ht="15.6">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -17328,7 +17313,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15">
+    <row r="324" spans="1:9" ht="15.6">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -17347,7 +17332,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15">
+    <row r="325" spans="1:9" ht="15.6">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -17366,7 +17351,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15">
+    <row r="326" spans="1:9" ht="15.6">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -17391,7 +17376,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15">
+    <row r="327" spans="1:9" ht="15.6">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -17748,7 +17733,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15">
+    <row r="344" spans="1:16" ht="15.6">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18111,7 +18096,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -18239,14 +18224,14 @@
       <selection activeCell="A17" sqref="A17:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.5" customWidth="1"/>
+    <col min="17" max="17" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -18667,7 +18652,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>557</v>
